--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3984335.651467982</v>
+        <v>3980031.311658115</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015057</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>221.0427070190009</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015057</v>
+        <v>15.36057463500355</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>33.90781306093611</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.875953774682387</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>126.669280160149</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015057</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>190.9820798897177</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>19.72100737961687</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>104.1383913127193</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>198.4033705722551</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2537761190401</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>67.09881849679809</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7312001102770072</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>17.27235916987433</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>357.3646705654954</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256483</v>
+        <v>132.6026661256388</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>77.64434086032701</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>60.45151727164204</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,13 +1423,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.9367233701402</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722614</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>21.90286287505374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>14.73874327217517</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.306220275312</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,13 +2848,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>76.28317487965505</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>183.8417748468611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.105315459463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>9.146142788179368</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.7894056603321</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7894056603321</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="D2" t="n">
-        <v>367.7894056603321</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="E2" t="n">
-        <v>367.7894056603321</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="F2" t="n">
-        <v>360.8439049111286</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
         <v>137.5684432757741</v>
@@ -4327,55 +4327,55 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052538</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.51749475159</v>
+        <v>294.5174947515901</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030595</v>
+        <v>495.59818340306</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991307</v>
+        <v>704.5463761991314</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358402</v>
+        <v>888.5149683358409</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946872</v>
+        <v>900.5447187946887</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946872</v>
+        <v>686.1106626298167</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946872</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946872</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946872</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946872</v>
+        <v>432.4256445709455</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275096</v>
+        <v>416.9099126163965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.278671047336</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>339.278671047336</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>339.278671047336</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>339.278671047336</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>192.744113074221</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>55.34742662328824</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>55.34742662328824</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699332</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302298</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267535</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293584</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560881</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789492</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212813</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212813</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212813</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212813</v>
+        <v>1033.614632400004</v>
       </c>
       <c r="V3" t="n">
-        <v>801.3675279810705</v>
+        <v>1033.614632400004</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528689</v>
+        <v>779.3772756718023</v>
       </c>
       <c r="X3" t="n">
-        <v>339.278671047336</v>
+        <v>571.5257754662695</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.278671047336</v>
+        <v>363.7654767013155</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980308</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980308</v>
+        <v>885.9193370781175</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980308</v>
+        <v>735.8026976657817</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980308</v>
+        <v>587.8896040833886</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012046</v>
+        <v>440.9996565854782</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012046</v>
+        <v>272.4302959404816</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012046</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075526</v>
+        <v>918.4699372075539</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816801</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165343</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165343</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U4" t="n">
-        <v>581.6908288493566</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V4" t="n">
-        <v>388.7796370415609</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W4" t="n">
-        <v>388.7796370415609</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X4" t="n">
-        <v>388.7796370415609</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y4" t="n">
-        <v>167.9870578980308</v>
+        <v>1054.855520006024</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.7364457822812</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="C5" t="n">
-        <v>586.7364457822812</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="D5" t="n">
-        <v>586.7364457822812</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="E5" t="n">
-        <v>586.7364457822812</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="F5" t="n">
-        <v>320.3587892151033</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>307.3949764416589</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>41.01731987448096</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052549</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030609</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411523</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822812</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822812</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="W5" t="n">
-        <v>586.7364457822812</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="X5" t="n">
-        <v>586.7364457822812</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.7364457822812</v>
+        <v>949.6652257507525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195.5501396812475</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.046441637462</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>657.638996614982</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>657.638996614982</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>403.4016398867803</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5501396812475</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>195.5501396812475</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.9094164146217</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="C7" t="n">
-        <v>184.9732334867147</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>184.9732334867147</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>37.06013990432163</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>37.06013990432163</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>37.06013990432163</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>37.06013990432163</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4731,46 +4731,46 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640386</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>574.7019955581518</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>574.7019955581518</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X7" t="n">
-        <v>574.7019955581518</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="Y7" t="n">
-        <v>353.9094164146217</v>
+        <v>533.7933752329598</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.37050346536</v>
+        <v>1659.090843722198</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.407986524948</v>
+        <v>1290.128326781786</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>931.8626281750355</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>546.0743755767912</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353407</v>
+        <v>135.0884707871837</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270079</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607432</v>
+        <v>442.1757437607412</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045911</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940592</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661159</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342788</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="T8" t="n">
-        <v>2351.810676439061</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="U8" t="n">
-        <v>2351.810676439061</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="V8" t="n">
-        <v>2351.810676439061</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="W8" t="n">
-        <v>2351.810676439061</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="X8" t="n">
-        <v>1978.344918177982</v>
+        <v>2435.830015762131</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.37050346536</v>
+        <v>2045.690683786319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4877,37 +4877,37 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999389</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507238</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442762</v>
+        <v>613.7598241331798</v>
       </c>
       <c r="L9" t="n">
-        <v>979.272447377758</v>
+        <v>908.2958075666606</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.33891585206</v>
+        <v>1271.362276040961</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324629</v>
+        <v>1658.44667851353</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312019</v>
+        <v>1990.333488500919</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888886</v>
+        <v>2237.368846930543</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442631</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342788</v>
+        <v>2560.562760342778</v>
       </c>
       <c r="S9" t="n">
         <v>2426.620673347184</v>
@@ -4919,7 +4919,7 @@
         <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.8757033348885</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="C10" t="n">
-        <v>644.8757033348885</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7590639225527</v>
+        <v>346.014296287159</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8459703401596</v>
+        <v>198.1012027047659</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9560228422492</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422492</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.21125520685557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838017</v>
+        <v>76.63468308380128</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676564</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.128892699198</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.147591173604</v>
+        <v>1557.340518345718</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.147591173604</v>
+        <v>1268.22214484036</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.147591173604</v>
+        <v>1013.537656634473</v>
       </c>
       <c r="W10" t="n">
-        <v>926.7304211366429</v>
+        <v>724.1204865975121</v>
       </c>
       <c r="X10" t="n">
-        <v>865.6682824784186</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="Y10" t="n">
-        <v>644.8757033348885</v>
+        <v>496.1309356994948</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770323</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,22 +5363,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5518,49 +5518,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5603,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5840,16 +5840,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,49 +6457,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>924.6979859831846</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1327.139029956954</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1106.346450813424</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,34 +6919,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7551,10 +7551,10 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7639,7 +7639,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7675,7 +7675,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474785</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7736,19 +7736,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127139</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127214</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658812</v>
+        <v>163.0416663658821</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127275</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>192.7716614458158</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>113.8482254012543</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9861830434852</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5874149221286018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>131.695219374394</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>90.96364621897278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.29586847696692</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>38.59775584152675</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.726664722474339</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>631885.920993051</v>
+        <v>631885.9209930511</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>637446.1093011802</v>
+        <v>637446.1093011801</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>616338.9411377263</v>
+        <v>616338.9411377262</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>616338.9411377262</v>
+        <v>616338.9411377263</v>
       </c>
     </row>
     <row r="7">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
@@ -26334,28 +26334,28 @@
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900059</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911926</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580804</v>
+        <v>390680.0076580779</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606923</v>
+        <v>507909.2320606943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101807</v>
+        <v>95270.23779101728</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631776</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>252122.0652631776</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447207</v>
+        <v>141668.8507447214</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680591</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26459,7 +26459,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567887</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174216.0791943533</v>
+        <v>-174216.0791943531</v>
       </c>
       <c r="C6" t="n">
         <v>505871.9013968398</v>
       </c>
       <c r="D6" t="n">
-        <v>195790.043885803</v>
+        <v>195790.0438858052</v>
       </c>
       <c r="E6" t="n">
-        <v>186337.8615886006</v>
+        <v>185990.4823342417</v>
       </c>
       <c r="F6" t="n">
-        <v>694247.0936492934</v>
+        <v>693899.7143949365</v>
       </c>
       <c r="G6" t="n">
-        <v>694247.0936492932</v>
+        <v>693899.7143949362</v>
       </c>
       <c r="H6" t="n">
-        <v>694247.0936492931</v>
+        <v>693899.7143949361</v>
       </c>
       <c r="I6" t="n">
-        <v>694247.0936492929</v>
+        <v>693899.7143949361</v>
       </c>
       <c r="J6" t="n">
-        <v>625247.9392301791</v>
+        <v>624900.5599758221</v>
       </c>
       <c r="K6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949362</v>
       </c>
       <c r="L6" t="n">
-        <v>598976.855858275</v>
+        <v>598629.4766039189</v>
       </c>
       <c r="M6" t="n">
-        <v>561529.1179538242</v>
+        <v>561181.738699467</v>
       </c>
       <c r="N6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949363</v>
       </c>
       <c r="O6" t="n">
-        <v>694247.0936492934</v>
+        <v>693899.7143949362</v>
       </c>
       <c r="P6" t="n">
-        <v>694247.0936492933</v>
+        <v>693899.7143949362</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.702459562782</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856971</v>
+        <v>640.1406900856946</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933058</v>
+        <v>319.6474457933037</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788902</v>
+        <v>434.2730407788918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841884</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841913</v>
+        <v>376.4268100841882</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139511</v>
+        <v>532.5675980139538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015057</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.4268100841884</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139513</v>
+        <v>532.5675980139536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619748</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>143.1621657402054</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>191.7914676267091</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545478</v>
+        <v>370.87736402105</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>10.01399094056951</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>222.9785337288722</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>25.7128791757078</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117173</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>61.15556343411026</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402054</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776191</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>95.58561216728027</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>223.6138671574155</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,7 +27715,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>27.45111693129951</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50.51920908443734</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>100.1480026018297</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>121.4193734145315</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>394.2768006183751</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.87326809055821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.77644916452553</v>
+        <v>1.776449164535052</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>143.1071476500118</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2581381173951</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28803,22 +28803,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,22 +28851,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29052,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,16 +29088,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.996113090560987e-14</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.698908343125368e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.4691627763185</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359933</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.760257752507</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307887</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983015</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140463</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571276</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617161</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152208</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519079</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133927</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415874</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307407</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942744</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650324</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>435.9638754389779</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,22 +33268,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089018</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>125.9385470877685</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958063</v>
+        <v>181.0986910958074</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087206</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.347194155916</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091019</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.536173343032</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234269</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816849</v>
+        <v>188.9976037816845</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884367</v>
+        <v>379.2332739216733</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772543</v>
+        <v>297.5110943772534</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396978</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.9943459318876</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074644</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>363.3788904816834</v>
+        <v>249.5306650804283</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>326.4584983961975</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783586</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.68023017873304</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>293.3676309945334</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3980031.311658115</v>
+        <v>3981791.841960901</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>118.1014820586771</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.36057463500355</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>36.83376831909185</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.875953774682387</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>141.170787862839</v>
       </c>
       <c r="H4" t="n">
-        <v>126.669280160149</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>263.7138800015061</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>104.1383913127193</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190401</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>67.09881849679809</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>68.20507093468839</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>17.27235916987433</v>
+        <v>83.03844342452834</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465048</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115243</v>
+        <v>20.2497997611524</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256388</v>
+        <v>132.6026661256424</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>77.64434086032783</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>77.64434086032701</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>224.56144953937</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>47.16611136584791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986223</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722611</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.9099126163965</v>
+        <v>153.355349495461</v>
       </c>
       <c r="C2" t="n">
-        <v>416.9099126163965</v>
+        <v>153.355349495461</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163965</v>
+        <v>153.355349495461</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163965</v>
+        <v>153.355349495461</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917582</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515901</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.59818340306</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991314</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946887</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298167</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709455</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709455</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709455</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709455</v>
+        <v>419.733006062639</v>
       </c>
       <c r="Y2" t="n">
-        <v>416.9099126163965</v>
+        <v>153.355349495461</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.5501396812475</v>
+        <v>217.5403919905173</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>217.5403919905173</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>217.5403919905173</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>58.30293698506176</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1033.614632400004</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1033.614632400004</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>779.3772756718023</v>
+        <v>801.367527981072</v>
       </c>
       <c r="X3" t="n">
-        <v>571.5257754662695</v>
+        <v>593.5160277755392</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.7654767013155</v>
+        <v>385.7557290105853</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C4" t="n">
-        <v>885.9193370781175</v>
+        <v>885.9193370781177</v>
       </c>
       <c r="D4" t="n">
-        <v>735.8026976657817</v>
+        <v>735.8026976657819</v>
       </c>
       <c r="E4" t="n">
-        <v>587.8896040833886</v>
+        <v>587.8896040833888</v>
       </c>
       <c r="F4" t="n">
-        <v>440.9996565854782</v>
+        <v>440.9996565854784</v>
       </c>
       <c r="G4" t="n">
-        <v>272.4302959404816</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
         <v>144.4815281019473</v>
@@ -4494,46 +4494,46 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075539</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.6652257507525</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>683.2875691835745</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D5" t="n">
-        <v>416.9099126163966</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>416.9099126163966</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4603,16 +4603,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>949.6652257507525</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W5" t="n">
-        <v>949.6652257507525</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>949.6652257507525</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>949.6652257507525</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
         <v>21.09711040012049</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.7933752329598</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227045</v>
@@ -4764,13 +4764,13 @@
         <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>731.2770207549979</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7933752329598</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.7933752329598</v>
+        <v>503.2874698569806</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.090843722198</v>
+        <v>1659.090843722201</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.128326781786</v>
+        <v>1290.12832678179</v>
       </c>
       <c r="D8" t="n">
-        <v>931.8626281750355</v>
+        <v>931.8626281750392</v>
       </c>
       <c r="E8" t="n">
-        <v>546.0743755767912</v>
+        <v>546.0743755767949</v>
       </c>
       <c r="F8" t="n">
-        <v>135.0884707871837</v>
+        <v>135.0884707871873</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467168</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607412</v>
+        <v>442.1757437607417</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.1862829045922</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209581</v>
+        <v>1655.591685209584</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940592</v>
+        <v>2053.905718940595</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661159</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762131</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762131</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762131</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.830015762131</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.830015762131</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.830015762131</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.690683786319</v>
+        <v>2045.690683786323</v>
       </c>
     </row>
     <row r="9">
@@ -4877,37 +4877,37 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993883</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507233</v>
+        <v>238.3188829507234</v>
       </c>
       <c r="K9" t="n">
-        <v>613.7598241331798</v>
+        <v>613.7598241331814</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666606</v>
+        <v>908.2958075666626</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.362276040961</v>
+        <v>1271.362276040964</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.44667851353</v>
+        <v>1658.446678513533</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500919</v>
+        <v>1990.333488500922</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930543</v>
+        <v>2237.368846930546</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
         <v>2426.620673347184</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1309356994948</v>
+        <v>574.5595628311391</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994948</v>
+        <v>574.5595628311391</v>
       </c>
       <c r="D10" t="n">
-        <v>346.014296287159</v>
+        <v>424.4429234188034</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047659</v>
+        <v>276.5298298364103</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685557</v>
+        <v>129.6398823384999</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380128</v>
+        <v>76.63468308380142</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676564</v>
+        <v>248.2500215676566</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368914</v>
+        <v>523.3850043368917</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904027</v>
+        <v>823.8653899904032</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
         <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1557.340518345718</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1268.22214484036</v>
+        <v>1346.650771972004</v>
       </c>
       <c r="V10" t="n">
-        <v>1013.537656634473</v>
+        <v>1091.966283766117</v>
       </c>
       <c r="W10" t="n">
-        <v>724.1204865975121</v>
+        <v>802.5491137291565</v>
       </c>
       <c r="X10" t="n">
-        <v>496.1309356994948</v>
+        <v>574.5595628311391</v>
       </c>
       <c r="Y10" t="n">
-        <v>496.1309356994948</v>
+        <v>574.5595628311391</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5059,34 +5059,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>801.6605733532804</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>983.3090381835201</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>450.3671302240735</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>283.1710309389535</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>141.4591997811516</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6934,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7314,19 +7314,19 @@
         <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127214</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,13 +8145,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094453</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658821</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458158</v>
+        <v>192.771661445817</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9861830434852</v>
+        <v>20.98618304348513</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>1.148205849667164</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>34.09972495271761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>267.0073229893819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>134.6711151870887</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>616338.9411377262</v>
+        <v>616338.9411377263</v>
       </c>
     </row>
     <row r="15">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
@@ -26334,7 +26334,7 @@
         <v>807146.599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900061</v>
@@ -26343,7 +26343,7 @@
         <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
@@ -26352,7 +26352,7 @@
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.980591193</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580779</v>
+        <v>390680.0076580786</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606943</v>
+        <v>507909.2320606936</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101728</v>
+        <v>95270.23779101757</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954692</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447214</v>
+        <v>141668.8507447211</v>
       </c>
       <c r="E4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680585</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680586</v>
       </c>
-      <c r="F4" t="n">
-        <v>11776.97621680592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11776.97621680591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11776.97621680586</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680584</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680587</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567887</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174216.0791943531</v>
+        <v>-174216.0791943535</v>
       </c>
       <c r="C6" t="n">
-        <v>505871.9013968398</v>
+        <v>505871.9013968397</v>
       </c>
       <c r="D6" t="n">
-        <v>195790.0438858052</v>
+        <v>195790.0438858045</v>
       </c>
       <c r="E6" t="n">
-        <v>185990.4823342417</v>
+        <v>186303.1236631641</v>
       </c>
       <c r="F6" t="n">
-        <v>693899.7143949365</v>
+        <v>694212.3557238572</v>
       </c>
       <c r="G6" t="n">
-        <v>693899.7143949362</v>
+        <v>694212.3557238574</v>
       </c>
       <c r="H6" t="n">
-        <v>693899.7143949361</v>
+        <v>694212.3557238574</v>
       </c>
       <c r="I6" t="n">
-        <v>693899.7143949361</v>
+        <v>694212.3557238578</v>
       </c>
       <c r="J6" t="n">
-        <v>624900.5599758221</v>
+        <v>625213.2013047435</v>
       </c>
       <c r="K6" t="n">
-        <v>693899.7143949362</v>
+        <v>694212.3557238575</v>
       </c>
       <c r="L6" t="n">
-        <v>598629.4766039189</v>
+        <v>598942.1179328397</v>
       </c>
       <c r="M6" t="n">
-        <v>561181.738699467</v>
+        <v>561494.3800283885</v>
       </c>
       <c r="N6" t="n">
-        <v>693899.7143949363</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="O6" t="n">
-        <v>693899.7143949362</v>
+        <v>694212.3557238576</v>
       </c>
       <c r="P6" t="n">
-        <v>693899.7143949362</v>
+        <v>694212.3557238575</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562782</v>
+        <v>933.7024595627826</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856946</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933037</v>
+        <v>319.6474457933043</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788918</v>
+        <v>434.2730407788912</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841884</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841882</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841884</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402054</v>
+        <v>288.7745636830343</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.87736402105</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>108.235444074292</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,13 +27514,13 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>222.9785337288722</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25.71287917570757</v>
       </c>
       <c r="H4" t="n">
-        <v>25.7128791757078</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>90.96916161917682</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>223.6138671574155</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443734</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>100.1480026018297</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>218.3179274019026</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>394.2768006183751</v>
+        <v>328.5107163637211</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164535052</v>
+        <v>1.776449164531442</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>88.66291275137836</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
         <v>104.8162497430995</v>
@@ -28064,7 +28064,7 @@
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>143.1071476500118</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28803,22 +28803,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,22 +28851,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29052,10 +29052,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,16 +29088,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885553</v>
+        <v>3.753577726885555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546668</v>
+        <v>38.4413278954667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597253</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763185</v>
+        <v>477.4691627763188</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354924</v>
+        <v>592.3427171354928</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359933</v>
+        <v>659.0954050359937</v>
       </c>
       <c r="N8" t="n">
-        <v>669.760257752507</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307887</v>
+        <v>632.435619230789</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983015</v>
+        <v>539.7691690983019</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542126</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140463</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508442</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035138</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026265</v>
+        <v>69.14683309026267</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502165</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571276</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617161</v>
+        <v>508.8678404617164</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152208</v>
+        <v>522.3360580152212</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519079</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947586</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
         <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366396</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133927</v>
+        <v>8.095024154133933</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415874</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490121</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307407</v>
+        <v>75.70643221307411</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942744</v>
+        <v>7.194100917942748</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650324</v>
+        <v>0.0918395861865033</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877685</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458913</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958074</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705667</v>
+        <v>137.5343130705669</v>
       </c>
       <c r="K8" t="n">
-        <v>257.379311731338</v>
+        <v>257.3793117313382</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655052</v>
+        <v>356.5763021655055</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087206</v>
+        <v>428.749171808721</v>
       </c>
       <c r="N8" t="n">
-        <v>440.347194155916</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091019</v>
+        <v>402.3374078091023</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343032</v>
+        <v>308.5361733430323</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797631</v>
+        <v>183.0384768797633</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234269</v>
+        <v>20.20013907234284</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816845</v>
+        <v>188.9976037816846</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216733</v>
+        <v>379.2332739216747</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.5110943772537</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396978</v>
+        <v>366.7338065396981</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318876</v>
+        <v>390.9943459318879</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074635</v>
+        <v>335.2392020074637</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804283</v>
+        <v>249.5306650804285</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961975</v>
+        <v>326.4584983961976</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873304</v>
+        <v>25.68023017873311</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093282</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641528</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254633</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8270281422857</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
